--- a/pred_ohlcv/54_21/2020-01-24 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 STEEM ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-40421.74756655</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-40478.98566655</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-40115.98566655</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-40261.46486655</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-39476.82366654999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-38877.41896654999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-37937.17996654999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-35630.29406654999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-35652.79806654999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-35063.10336654999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-35567.94736654999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-37034.26576654999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-37259.56616654999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-36940.50986654999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-37493.00066654999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-37294.27346654999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-37448.02086654999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-47559.54416654999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-49697.92216654999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-45797.92216654999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-48097.97766654999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-48141.89506654999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-48138.89506654999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-51528.16926654999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-59617.96626654999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-60332.15106654999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-60052.27996654999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-56876.27996654999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-66765.63996654999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-64023.21296654999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-81069.15436654999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-128523.93856655</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-195339.67453944</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-196756.4136394401</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-198492.3474153801</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 STEEM ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-39476.82366654999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-38877.41896654999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-38877.41896654999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-37937.17996654999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-35630.29406654999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-35652.79806654999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-35063.10336654999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-35567.94736654999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-37034.26576654999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-37259.56616654999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-36940.50986654999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-37493.00066654999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-37294.27346654999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-37448.02086654999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-36857.12286654999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-46468.23316654999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-47559.54416654999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-50287.92216654999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-49697.92216654999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-45797.92216654999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-48097.97766654999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-47986.97766654999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-48141.89506654999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-48528.16926654999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-51528.16926654999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-60378.16926654999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-56512.27996654999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-56876.27996654999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-66765.63996654999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-64023.21296654999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-128577.53866655</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-128716.83856655</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-128523.93856655</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-135894.95186655</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-142362.49776655</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-187795.41473944</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-195339.67453944</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-195211.4136394401</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-198492.3474153801</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-195996.1291707001</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
